--- a/documents/AZ-Touch_MKR_Nano_SAMD21G_pins.xlsx
+++ b/documents/AZ-Touch_MKR_Nano_SAMD21G_pins.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tedtoal/Documents/Arduino/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tedtoal/Documents/Arduino/github_clones/SmartVent_Thermostat/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80C9D8B-9D6C-154B-B298-6CA7EDCEE68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF68EB62-D118-674A-9956-67C6898B8B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="2460" windowWidth="32240" windowHeight="25200" xr2:uid="{3AC56626-1C4E-1C4C-A22B-EA89B23700C9}"/>
+    <workbookView xWindow="18660" yWindow="1660" windowWidth="32240" windowHeight="25200" xr2:uid="{3AC56626-1C4E-1C4C-A22B-EA89B23700C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="182">
   <si>
     <t>AIN 0</t>
   </si>
@@ -234,21 +235,6 @@
     <t>D9</t>
   </si>
   <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>D0</t>
   </si>
   <si>
@@ -279,9 +265,6 @@
     <t>SCL</t>
   </si>
   <si>
-    <t>A4 (sic)</t>
-  </si>
-  <si>
     <t>T_IRQ</t>
   </si>
   <si>
@@ -294,15 +277,9 @@
     <t>DC</t>
   </si>
   <si>
-    <t>A6 (sic)</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
-    <t>A5 (sic)</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
@@ -327,18 +304,12 @@
     <t>RX</t>
   </si>
   <si>
-    <t>Alternate Name</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
     <t>VIN_1</t>
   </si>
   <si>
-    <t>Thermostat</t>
-  </si>
-  <si>
     <t>Pin Number</t>
   </si>
   <si>
@@ -450,84 +421,12 @@
     <t>AZ-Touch MKR</t>
   </si>
   <si>
-    <t>Shield Pin</t>
-  </si>
-  <si>
-    <t>Shield Number</t>
-  </si>
-  <si>
     <t>Arduino #</t>
   </si>
   <si>
-    <t>N/C (A6)</t>
-  </si>
-  <si>
-    <t>GND1</t>
-  </si>
-  <si>
-    <t>GND2</t>
-  </si>
-  <si>
-    <t>RESET1</t>
-  </si>
-  <si>
-    <t>RESET2</t>
-  </si>
-  <si>
-    <t>RESET (run wire to K2 pin 1)</t>
-  </si>
-  <si>
-    <t>N/C (34V)</t>
-  </si>
-  <si>
-    <t>34VDC</t>
-  </si>
-  <si>
-    <t>N/C (24VAC)</t>
-  </si>
-  <si>
-    <t>A1 (wire from spring terminal)</t>
-  </si>
-  <si>
-    <t>24VAC HOT</t>
-  </si>
-  <si>
-    <t>24VAC COM</t>
-  </si>
-  <si>
-    <t>N/C (24COM)</t>
-  </si>
-  <si>
-    <t>DAC0/A0 (wire from spring terminal)</t>
-  </si>
-  <si>
-    <t>AREF (run wire to Nano)</t>
-  </si>
-  <si>
-    <t>D1 (run wire to Nano)</t>
-  </si>
-  <si>
-    <t>D0 (only runs to Arduino MKR)</t>
-  </si>
-  <si>
-    <t>VIN_1 (only runs to Arduino MKR)</t>
-  </si>
-  <si>
-    <t>N/C (Zone4Fan)</t>
-  </si>
-  <si>
-    <t>D2 (wire from spring terminal)</t>
-  </si>
-  <si>
-    <t>Zone 4 FAN</t>
-  </si>
-  <si>
     <t>Calibration CAP</t>
   </si>
   <si>
-    <t>SmartVent ON</t>
-  </si>
-  <si>
     <t>AREF OUT</t>
   </si>
   <si>
@@ -538,6 +437,150 @@
   </si>
   <si>
     <t>Outdoor TEMP</t>
+  </si>
+  <si>
+    <t>Connects to Nano A1</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>Only runs to Arduino MKR socket</t>
+  </si>
+  <si>
+    <t>11/SDA</t>
+  </si>
+  <si>
+    <t>12/SCL</t>
+  </si>
+  <si>
+    <t>D11/MOSI</t>
+  </si>
+  <si>
+    <t>D12/MISO</t>
+  </si>
+  <si>
+    <t>D13/SCK</t>
+  </si>
+  <si>
+    <t>D0/TX</t>
+  </si>
+  <si>
+    <t>D1/RX</t>
+  </si>
+  <si>
+    <t>MKR Nano Pin Name</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>Signal and Pin Name</t>
+  </si>
+  <si>
+    <t>MKR Shield Pin Name</t>
+  </si>
+  <si>
+    <t>MKR Signal Name</t>
+  </si>
+  <si>
+    <t>MKR Shield Pin Number</t>
+  </si>
+  <si>
+    <t>Thermostat Signal Name</t>
+  </si>
+  <si>
+    <t>D6~</t>
+  </si>
+  <si>
+    <t>D5~</t>
+  </si>
+  <si>
+    <t>D3~</t>
+  </si>
+  <si>
+    <t>D9~</t>
+  </si>
+  <si>
+    <t>D10~</t>
+  </si>
+  <si>
+    <t>MISO~</t>
+  </si>
+  <si>
+    <t>VUSB (5V)</t>
+  </si>
+  <si>
+    <t>RESETN</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>D10/SS</t>
+  </si>
+  <si>
+    <t>A4 (not A1)</t>
+  </si>
+  <si>
+    <t>~5</t>
+  </si>
+  <si>
+    <t>~4</t>
+  </si>
+  <si>
+    <t>~3</t>
+  </si>
+  <si>
+    <t>8/MOSI</t>
+  </si>
+  <si>
+    <t>10/MISO</t>
+  </si>
+  <si>
+    <t>9/SCK</t>
+  </si>
+  <si>
+    <t>14/TX</t>
+  </si>
+  <si>
+    <t>13/RX</t>
+  </si>
+  <si>
+    <t>DAC0/A0</t>
+  </si>
+  <si>
+    <t>~2</t>
+  </si>
+  <si>
+    <t>Used as BEEPER</t>
+  </si>
+  <si>
+    <t>Used as touchscreen T_CS</t>
+  </si>
+  <si>
+    <t>Used as touchscreen T_IRQ</t>
+  </si>
+  <si>
+    <t>Used as display  backlight LED</t>
+  </si>
+  <si>
+    <t>Used as display DC</t>
+  </si>
+  <si>
+    <t>Used as display CS</t>
+  </si>
+  <si>
+    <t>Not connected on board - available</t>
+  </si>
+  <si>
+    <t>Arduino Number</t>
+  </si>
+  <si>
+    <t>SMARTVENT ON</t>
   </si>
 </sst>
 </file>
@@ -575,7 +618,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -598,11 +641,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,8 +696,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,105 +1028,117 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -1049,24 +1153,29 @@
       <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="4">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
-        <v>4</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4">
-        <v>14</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1081,28 +1190,31 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>3</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" s="4">
+        <v>49</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O4" s="4">
         <v>1</v>
       </c>
-      <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -1110,7 +1222,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -1119,28 +1231,31 @@
       <c r="H5" s="4">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="4">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4">
+        <v>8</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <v>8</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="4">
+        <v>74</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
         <v>20</v>
       </c>
-      <c r="O5" s="4">
-        <v>18</v>
-      </c>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -1148,7 +1263,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -1157,28 +1272,31 @@
       <c r="H6" s="4">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="4">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4">
+        <v>9</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
-        <v>9</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="4">
+        <v>75</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
         <v>21</v>
       </c>
-      <c r="O6" s="4">
-        <v>19</v>
-      </c>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -1188,7 +1306,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -1197,12 +1315,14 @@
       <c r="H7" s="4">
         <v>9</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4">
         <v>24</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>52</v>
@@ -1210,17 +1330,18 @@
       <c r="M7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
         <v>15</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>6</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -1230,7 +1351,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1239,12 +1360,14 @@
       <c r="H8" s="4">
         <v>10</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
         <v>23</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>53</v>
@@ -1252,17 +1375,18 @@
       <c r="M8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
         <v>14</v>
-      </c>
-      <c r="O8" s="4">
-        <v>5</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -1272,7 +1396,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -1281,12 +1405,14 @@
       <c r="H9" s="4">
         <v>11</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="4">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4">
+        <v>25</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>25</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>54</v>
@@ -1294,17 +1420,18 @@
       <c r="M9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
         <v>16</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>7</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -1314,7 +1441,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -1323,12 +1450,14 @@
       <c r="H10" s="4">
         <v>12</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="4">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4">
+        <v>22</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
-        <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>55</v>
@@ -1336,17 +1465,18 @@
       <c r="M10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
         <v>13</v>
       </c>
-      <c r="O10" s="4">
-        <v>4</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -1369,8 +1499,9 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -1393,8 +1524,9 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -1402,7 +1534,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -1411,30 +1543,35 @@
       <c r="H13" s="4">
         <v>47</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="4">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4">
-        <v>5</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="4">
+        <v>162</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="4">
         <v>6</v>
       </c>
-      <c r="O13" s="4">
-        <v>15</v>
-      </c>
       <c r="P13" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -1442,7 +1579,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
@@ -1451,24 +1588,29 @@
       <c r="H14" s="4">
         <v>48</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="4">
+        <v>21</v>
+      </c>
+      <c r="J14" s="4">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <v>11</v>
-      </c>
       <c r="L14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4">
-        <v>21</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -1491,8 +1633,9 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1515,8 +1658,9 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>14</v>
@@ -1539,8 +1683,9 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
@@ -1563,8 +1708,9 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>16</v>
@@ -1572,10 +1718,10 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>36</v>
@@ -1583,22 +1729,21 @@
       <c r="H19" s="4">
         <v>13</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>58</v>
+      <c r="I19" s="4">
+        <v>27</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4">
-        <v>27</v>
-      </c>
+      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>17</v>
@@ -1606,10 +1751,10 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>37</v>
@@ -1617,30 +1762,33 @@
       <c r="H20" s="4">
         <v>14</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="4">
+        <v>20</v>
+      </c>
+      <c r="J20" s="4">
+        <v>10</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4">
+      <c r="L20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" s="4">
         <v>10</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N20" s="4">
-        <v>10</v>
-      </c>
-      <c r="O20" s="4">
-        <v>20</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>18</v>
@@ -1648,10 +1796,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>38</v>
@@ -1659,24 +1807,29 @@
       <c r="H21" s="4">
         <v>15</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="4">
+        <v>17</v>
+      </c>
+      <c r="J21" s="4">
+        <v>7</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4">
-        <v>7</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4">
-        <v>17</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
@@ -1684,10 +1837,10 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>39</v>
@@ -1695,33 +1848,38 @@
       <c r="H22" s="4">
         <v>16</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="4">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4">
+        <v>6</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
-        <v>6</v>
-      </c>
       <c r="L22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4">
-        <v>16</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>40</v>
@@ -1729,33 +1887,38 @@
       <c r="H23" s="4">
         <v>19</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
-        <v>20</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>41</v>
@@ -1763,12 +1926,14 @@
       <c r="H24" s="4">
         <v>20</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4">
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4">
         <v>21</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>63</v>
@@ -1776,26 +1941,27 @@
       <c r="M24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4">
         <v>12</v>
       </c>
-      <c r="O24" s="4">
-        <v>3</v>
-      </c>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>42</v>
@@ -1803,37 +1969,40 @@
       <c r="H25" s="4">
         <v>27</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="4">
+        <v>8</v>
+      </c>
+      <c r="J25" s="4">
+        <v>26</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4">
-        <v>26</v>
-      </c>
       <c r="L25" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="4">
-        <v>8</v>
-      </c>
+      <c r="N25" s="4"/>
       <c r="O25" s="4">
         <v>8</v>
       </c>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>43</v>
@@ -1841,37 +2010,40 @@
       <c r="H26" s="4">
         <v>29</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="4">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4">
+        <v>27</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
-        <v>27</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="M26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N26" s="4">
+        <v>80</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4">
         <v>7</v>
       </c>
-      <c r="O26" s="4">
-        <v>9</v>
-      </c>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>44</v>
@@ -1879,100 +2051,107 @@
       <c r="H27" s="4">
         <v>30</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4">
+      <c r="I27" s="4">
+        <v>10</v>
+      </c>
+      <c r="J27" s="4">
         <v>28</v>
       </c>
+      <c r="K27" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="L27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4">
-        <v>10</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H28" s="4">
         <v>25</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="I28" s="4">
+        <v>11</v>
+      </c>
+      <c r="J28" s="4">
         <v>29</v>
       </c>
+      <c r="K28" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="L28" s="4" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N28" s="4">
+        <v>82</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4">
         <v>17</v>
       </c>
-      <c r="O28" s="4">
-        <v>11</v>
-      </c>
-      <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H29" s="4">
         <v>28</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="4">
+      <c r="I29" s="4">
+        <v>12</v>
+      </c>
+      <c r="J29" s="4">
         <v>30</v>
       </c>
+      <c r="K29" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="L29" s="4" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" s="4">
+        <v>83</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4">
         <v>19</v>
       </c>
-      <c r="O29" s="4">
-        <v>12</v>
-      </c>
-      <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1980,41 +2159,42 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H30" s="4">
         <v>26</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" s="4">
+      <c r="I30" s="4">
+        <v>13</v>
+      </c>
+      <c r="J30" s="4">
         <v>1</v>
       </c>
+      <c r="K30" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="L30" s="4" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N30" s="4">
+        <v>84</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4">
         <v>18</v>
       </c>
-      <c r="O30" s="4">
-        <v>13</v>
-      </c>
-      <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
@@ -2023,36 +2203,37 @@
       <c r="H31" s="4">
         <v>37</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" s="4">
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
         <v>16</v>
       </c>
+      <c r="K31" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="L31" s="4" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N31" s="4">
+        <v>85</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4">
         <v>23</v>
       </c>
-      <c r="O31" s="4">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
@@ -2061,30 +2242,31 @@
       <c r="H32" s="4">
         <v>38</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
         <v>17</v>
       </c>
+      <c r="K32" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="L32" s="4" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N32" s="4">
+        <v>86</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4">
         <v>22</v>
       </c>
-      <c r="O32" s="4">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2093,28 +2275,31 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
         <v>2</v>
       </c>
+      <c r="K33" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="L33" s="4" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" s="4">
+        <v>146</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4">
         <v>26</v>
       </c>
-      <c r="O33" s="4"/>
       <c r="P33" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2123,22 +2308,23 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>12</v>
       </c>
+      <c r="K34" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="L34" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2147,28 +2333,31 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
         <v>15</v>
       </c>
+      <c r="K35" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="L35" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N35" s="4">
+        <v>68</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4">
         <v>28</v>
       </c>
-      <c r="O35" s="4"/>
       <c r="P35" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2180,19 +2369,22 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N36" s="4">
+        <v>90</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O36" s="4">
         <v>27</v>
       </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2204,21 +2396,20 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N37" s="4">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O37" s="4">
         <v>24</v>
       </c>
-      <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2230,21 +2421,20 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N38" s="4">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O38" s="4">
         <v>2</v>
       </c>
-      <c r="O38" s="4"/>
       <c r="P38" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2256,21 +2446,20 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N39" s="4">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O39" s="4">
         <v>3</v>
       </c>
-      <c r="O39" s="4"/>
       <c r="P39" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2279,28 +2468,31 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
         <v>14</v>
       </c>
+      <c r="K40" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="L40" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N40" s="4">
+        <v>70</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4">
         <v>25</v>
       </c>
-      <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2309,22 +2501,25 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
         <v>19</v>
       </c>
+      <c r="K41" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="L41" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M41" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2333,22 +2528,25 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
         <v>13</v>
       </c>
+      <c r="K42" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="L42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M42" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2357,22 +2555,25 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
         <v>18</v>
       </c>
+      <c r="K43" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="L43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M43" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2384,21 +2585,20 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N44" s="4">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O44" s="4">
         <v>11</v>
       </c>
-      <c r="O44" s="4"/>
       <c r="P44" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2410,19 +2610,20 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N45" s="4">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="4">
         <v>9</v>
       </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2434,19 +2635,20 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M46" s="4" t="s">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O46" s="4">
+        <v>4</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N46" s="4">
-        <v>4</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2458,23 +2660,24 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M47" s="4" t="s">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O47" s="4">
+        <v>5</v>
+      </c>
+      <c r="P47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N47" s="4">
-        <v>5</v>
-      </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
